--- a/data/s1/Kanaleneiland/archetypes/stats_trans.xlsx
+++ b/data/s1/Kanaleneiland/archetypes/stats_trans.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20417"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asier.divasson\Documents\GitHub\CogniCity\data\Kanaleneiland\archetypes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asier.divasson\Documents\GitHub\CogniCity\data\s0\Annelinn\archetypes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E48E94BD-B314-42F7-AF04-00DA723BC232}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C27C9827-649F-4F4D-891F-02573A0C7194}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8364" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="855" windowWidth="25440" windowHeight="15270" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -124,12 +124,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -434,8 +433,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -468,7 +467,7 @@
         <v>14</v>
       </c>
       <c r="C2">
-        <v>0.4</v>
+        <v>0.44</v>
       </c>
       <c r="D2">
         <v>0.1</v>
@@ -508,7 +507,7 @@
         <v>14</v>
       </c>
       <c r="C4">
-        <v>0.55000000000000004</v>
+        <v>0.61</v>
       </c>
       <c r="D4">
         <v>0.1</v>
@@ -548,7 +547,7 @@
         <v>14</v>
       </c>
       <c r="C6">
-        <v>0.45</v>
+        <v>0.49</v>
       </c>
       <c r="D6">
         <v>0.1</v>
@@ -588,9 +587,9 @@
         <v>14</v>
       </c>
       <c r="C8">
-        <v>0.45</v>
-      </c>
-      <c r="D8" s="2">
+        <v>0.49</v>
+      </c>
+      <c r="D8">
         <v>0.1</v>
       </c>
       <c r="E8">
@@ -628,7 +627,7 @@
         <v>14</v>
       </c>
       <c r="C10">
-        <v>0.65</v>
+        <v>0.72</v>
       </c>
       <c r="D10">
         <v>0.12</v>
@@ -668,7 +667,7 @@
         <v>14</v>
       </c>
       <c r="C12">
-        <v>0.5</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="D12">
         <v>0.1</v>
@@ -708,7 +707,7 @@
         <v>14</v>
       </c>
       <c r="C14">
-        <v>0.75</v>
+        <v>0.83</v>
       </c>
       <c r="D14">
         <v>0.12</v>
@@ -748,7 +747,7 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="D16">
         <v>0.11</v>
